--- a/trunk/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
+++ b/trunk/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-480" windowWidth="24705" windowHeight="11235" activeTab="1"/>
+    <workbookView xWindow="-150" yWindow="-480" windowWidth="15255" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info and definitions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
   <si>
     <t>Category</t>
   </si>
@@ -333,13 +333,73 @@
   </si>
   <si>
     <t>Player characters' animations to display without jittering and extra parts</t>
+  </si>
+  <si>
+    <t>5|14</t>
+  </si>
+  <si>
+    <t>Profile select screen's "New Game", "Delete", and "Edit" seem to rotate improperly</t>
+  </si>
+  <si>
+    <t>Run the game and use the arrow keys to select "New Game", "Delete", or "Edit"</t>
+  </si>
+  <si>
+    <t>"New Game", "Delete", and "Edit" rotate around the X axis erratically and not smoothly.</t>
+  </si>
+  <si>
+    <t>"New Game", "Delete", and "Edit" rotate around the X axis smoothly, and around the center of the word.</t>
+  </si>
+  <si>
+    <t>6|14</t>
+  </si>
+  <si>
+    <t>When creating a new profile, shift + enter must be pressed to progress to the main menu</t>
+  </si>
+  <si>
+    <t>Run the game and create a new profile, then attempt to select it.</t>
+  </si>
+  <si>
+    <t>When enter was pressed, nothing happened, but when shift + enter were pressed, the profile was selected and the game progressed to the main menu.</t>
+  </si>
+  <si>
+    <t>When enter is pressed, the profile would be selected and move to the main menu.</t>
+  </si>
+  <si>
+    <t>7|14</t>
+  </si>
+  <si>
+    <t>Options menu does not save whether the game is set to fullscreen or not.</t>
+  </si>
+  <si>
+    <t>Run the game, select a profile, go to the main menu, select optoons, go to video settings, change the windowed mode option, then exit the game. Restart the game and the windowed mode option is reset to what it was before.</t>
+  </si>
+  <si>
+    <t>When the game was reloaded after settings were changed, the settings were not loaded.</t>
+  </si>
+  <si>
+    <t>When the game is reloaded after settings are changed, the changed settings will  be preserved.</t>
+  </si>
+  <si>
+    <t>8|14</t>
+  </si>
+  <si>
+    <t>When a level is loaded or restarted, the second player's projectile is fired.</t>
+  </si>
+  <si>
+    <t>Run the game and enter a level. Observe the projectile being fired.</t>
+  </si>
+  <si>
+    <t>When a level was loaded or reloaded, a projectile was fired from the second player.</t>
+  </si>
+  <si>
+    <t>When the level is loaded or reloaded, the level should reset and no ability should be activated.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,7 +676,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -673,16 +733,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -716,34 +782,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -780,7 +846,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -815,7 +880,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -897,7 +961,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -906,7 +970,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -915,7 +979,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -991,7 +1055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
@@ -999,7 +1063,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -1014,7 +1078,7 @@
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>63</v>
       </c>
@@ -1028,7 +1092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
         <v>65</v>
       </c>
@@ -1042,7 +1106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1054,7 +1118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="16" t="s">
         <v>53</v>
       </c>
@@ -1071,7 +1135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" thickTop="1">
       <c r="A5" s="27" t="s">
         <v>66</v>
       </c>
@@ -1087,7 +1151,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
         <v>67</v>
       </c>
@@ -1103,7 +1167,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="27" t="s">
         <v>68</v>
       </c>
@@ -1119,7 +1183,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="D8" s="25"/>
       <c r="E8" s="16" t="s">
         <v>0</v>
@@ -1128,7 +1192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="16" t="s">
         <v>56</v>
       </c>
@@ -1140,7 +1204,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="28" t="s">
         <v>69</v>
       </c>
@@ -1151,7 +1215,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1160,7 +1224,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="16" t="s">
         <v>53</v>
       </c>
@@ -1177,7 +1241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" thickTop="1">
       <c r="A13" s="27" t="s">
         <v>70</v>
       </c>
@@ -1192,7 +1256,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="27" t="s">
         <v>73</v>
       </c>
@@ -1207,13 +1271,13 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="E15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="16" t="s">
         <v>57</v>
       </c>
@@ -1222,7 +1286,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="29">
         <v>14</v>
       </c>
@@ -1231,61 +1295,61 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" thickTop="1">
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="E20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="46.5" thickTop="1" thickBot="1">
       <c r="E27" s="16" t="s">
         <v>2</v>
       </c>
@@ -1293,25 +1357,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" thickTop="1">
       <c r="E28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="E29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
       <c r="E30" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="E31" s="16" t="s">
         <v>5</v>
       </c>
@@ -1319,7 +1383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="31.5" thickTop="1" thickBot="1">
       <c r="E32" s="16" t="s">
         <v>33</v>
       </c>
@@ -1327,7 +1391,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="C33" s="20"/>
       <c r="E33" s="16" t="s">
         <v>36</v>
@@ -1336,7 +1400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="E34" s="16" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="E35" s="16" t="s">
         <v>43</v>
       </c>
@@ -1352,7 +1416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" ht="31.5" thickTop="1" thickBot="1">
       <c r="E36" s="16" t="s">
         <v>4</v>
       </c>
@@ -1360,26 +1424,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" ht="15.75" thickTop="1">
       <c r="E37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6">
       <c r="D38" s="10"/>
       <c r="E38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6">
       <c r="E39" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" ht="15.75" thickBot="1">
       <c r="E40" s="9" t="s">
         <v>41</v>
       </c>
@@ -1399,27 +1463,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:P14"/>
+    <sheetView tabSelected="1" topLeftCell="J25" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42:P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
@@ -1433,7 +1497,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickTop="1">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="18" t="s">
         <v>82</v>
       </c>
@@ -1533,7 +1597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1575,11 +1639,11 @@
       </c>
       <c r="P5" s="31"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <v>40381</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1589,7 +1653,7 @@
       <c r="E6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="34">
         <v>40381</v>
       </c>
       <c r="G6" s="30" t="s">
@@ -1599,7 +1663,7 @@
       <c r="I6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="34">
         <v>40381</v>
       </c>
       <c r="K6" s="30" t="s">
@@ -1609,7 +1673,7 @@
       <c r="M6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="34">
         <v>40381</v>
       </c>
       <c r="O6" s="30" t="s">
@@ -1617,216 +1681,216 @@
       </c>
       <c r="P6" s="30"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34" t="s">
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33" t="s">
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-    </row>
-    <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A10" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32" t="s">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34" t="s">
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+    </row>
+    <row r="12" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A12" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34" t="s">
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+    </row>
+    <row r="14" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A14" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32" t="s">
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -1840,7 +1904,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" thickTop="1">
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
@@ -1854,13 +1918,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="18"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="13" t="s">
         <v>4</v>
       </c>
@@ -1872,70 +1936,70 @@
       </c>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+    </row>
+    <row r="24" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-    </row>
-    <row r="26" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+    </row>
+    <row r="26" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-    </row>
-    <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="16" t="s">
         <v>60</v>
       </c>
@@ -1949,7 +2013,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" thickTop="1">
       <c r="A31" s="13" t="s">
         <v>32</v>
       </c>
@@ -1962,14 +2026,94 @@
       <c r="D31" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
@@ -1980,71 +2124,289 @@
         <v>34</v>
       </c>
       <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="E33" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" s="33"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="34">
+        <v>40382</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>50</v>
+      </c>
       <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="E34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="34">
+        <v>40382</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="34">
+        <v>40382</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="34">
+        <v>40382</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+    </row>
+    <row r="38" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A38" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-    </row>
-    <row r="40" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+    </row>
+    <row r="40" spans="1:16" ht="47.25" customHeight="1">
+      <c r="A40" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-    </row>
-    <row r="42" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+    </row>
+    <row r="42" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A42" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="16" t="s">
         <v>61</v>
       </c>
@@ -2058,7 +2420,7 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15.75" thickTop="1">
       <c r="A45" s="13" t="s">
         <v>32</v>
       </c>
@@ -2072,13 +2434,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="18"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="13" t="s">
         <v>4</v>
       </c>
@@ -2090,80 +2452,127 @@
       </c>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+    </row>
+    <row r="52" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-    </row>
-    <row r="54" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+    </row>
+    <row r="54" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-    </row>
-    <row r="56" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+    </row>
+    <row r="56" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
+  <mergeCells count="81">
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
@@ -2178,39 +2587,16 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
   </mergeCells>
   <dataValidations count="24">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
@@ -2222,7 +2608,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 F32 J32 N32">
       <formula1>severity</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46">
@@ -2234,7 +2620,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 G32 K32 O32">
       <formula1>category</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46">
@@ -2246,7 +2632,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32 H32 L32 P32">
       <formula1>component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48">
@@ -2258,7 +2644,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34 E34 I34 M34">
       <formula1>status</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48">
@@ -2270,7 +2656,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
       <formula1>build_found</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34 G34 K34 O34">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">

--- a/trunk/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
+++ b/trunk/HomelessTitans_Testing_for_TwoGuysAndAGirl_BugTracker_Ver2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-480" windowWidth="15255" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="-150" yWindow="-480" windowWidth="13965" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info and definitions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="140">
   <si>
     <t>Category</t>
   </si>
@@ -206,15 +206,9 @@
     <t>Tester #1 name:</t>
   </si>
   <si>
-    <t>Student 4</t>
-  </si>
-  <si>
     <t>Tester #3 name:</t>
   </si>
   <si>
-    <t>Tester #4 name:</t>
-  </si>
-  <si>
     <t>Tester #2 name:</t>
   </si>
   <si>
@@ -393,6 +387,66 @@
   </si>
   <si>
     <t>When the level is loaded or reloaded, the level should reset and no ability should be activated.</t>
+  </si>
+  <si>
+    <t>9|14</t>
+  </si>
+  <si>
+    <t>Game does not pause on Alt + Tab (TRC Compliance)</t>
+  </si>
+  <si>
+    <t>Run the game and make sure one of the spinning words is selected. If you Alt + Tab out, and then back in, the word is at a different angle than before. Alternatively, if you have Windows 7, you can preview the program using the command bar and it's still running without focus.</t>
+  </si>
+  <si>
+    <t>If the program does not have focus, the game is still running.</t>
+  </si>
+  <si>
+    <t>If the program does not have focus, the game should be paused.</t>
+  </si>
+  <si>
+    <t>Name is preserved on cancel of a new game.</t>
+  </si>
+  <si>
+    <t>Run the game and select new game. Select an empty save slot and type a name. Hit escape and select that empty save slot again.</t>
+  </si>
+  <si>
+    <t>The name is preserved even though you cancel the fact that you are creating that save game.</t>
+  </si>
+  <si>
+    <t>The name slot should be cleared on cancellation or creation of a new game so that the name is not preserved.</t>
+  </si>
+  <si>
+    <t>10|14</t>
+  </si>
+  <si>
+    <t>11|14</t>
+  </si>
+  <si>
+    <t>Hitting escape on any save file causes it to disappear.</t>
+  </si>
+  <si>
+    <t>Run the game and select new game. Now, without hitting enter on any save file to activate it, purely select one and hit escape.</t>
+  </si>
+  <si>
+    <t>Even though the save file was not activated to create a new file, escape still deletes it as if you had created a new one and changed your mind.</t>
+  </si>
+  <si>
+    <t>Escape should have no effect on the save files at that point but should take you back to the New Game, Delete and Edit options.</t>
+  </si>
+  <si>
+    <t>Saving the game does not work from inside a level.</t>
+  </si>
+  <si>
+    <t>Run the game and select a profile. Click play and select level 10 (for example). While in the level, open the menu, select save game and try to save your game.</t>
+  </si>
+  <si>
+    <t>You will not be able to select any of the save files.</t>
+  </si>
+  <si>
+    <t>You should be able to select any of the three save files to write your data to.</t>
+  </si>
+  <si>
+    <t>12|14</t>
   </si>
 </sst>
 </file>
@@ -503,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -662,6 +716,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -676,7 +767,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -744,11 +835,29 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1080,7 +1189,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1094,7 +1203,7 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1137,13 +1246,13 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1">
       <c r="A5" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="7" t="s">
@@ -1153,13 +1262,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="7" t="s">
@@ -1169,13 +1278,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="8" t="s">
@@ -1206,7 +1315,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1243,13 +1352,13 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" thickTop="1">
       <c r="A13" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
@@ -1258,13 +1367,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
@@ -1465,10 +1574,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J25" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42:P42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1477,18 +1586,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A1" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="A1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1549,7 +1658,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>16</v>
@@ -1561,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>15</v>
@@ -1573,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>17</v>
@@ -1585,7 +1694,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N4" s="30" t="s">
         <v>17</v>
@@ -1682,220 +1791,220 @@
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36" t="s">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+    </row>
+    <row r="10" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A12" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
-      <c r="A9" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-    </row>
-    <row r="10" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A14" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-    </row>
-    <row r="12" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A12" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-    </row>
-    <row r="14" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A14" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1917,12 +2026,92 @@
       <c r="D17" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="E17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="13" t="s">
@@ -1935,76 +2124,294 @@
         <v>34</v>
       </c>
       <c r="D19" s="13"/>
+      <c r="E19" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="36"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="34">
+        <v>40382</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="D20" s="14"/>
+      <c r="E20" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="34">
+        <v>40382</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="34">
+        <v>40382</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="34">
+        <v>40382</v>
+      </c>
+      <c r="O20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="35"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="A22" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
     </row>
     <row r="24" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
+      <c r="A24" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="A26" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -2065,7 +2472,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>17</v>
@@ -2077,7 +2484,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>16</v>
@@ -2089,7 +2496,7 @@
         <v>11</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J32" s="32" t="s">
         <v>16</v>
@@ -2101,7 +2508,7 @@
         <v>11</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N32" s="32" t="s">
         <v>16</v>
@@ -2198,332 +2605,288 @@
       <c r="P34" s="32"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36" t="s">
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36" t="s">
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+    </row>
+    <row r="38" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A38" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+    </row>
+    <row r="40" spans="1:16" ht="47.25" customHeight="1">
+      <c r="A40" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35" t="s">
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35" t="s">
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-    </row>
-    <row r="38" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A38" s="35" t="s">
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+    </row>
+    <row r="42" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35" t="s">
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35" t="s">
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35" t="s">
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-    </row>
-    <row r="40" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A40" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-    </row>
-    <row r="42" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A42" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" thickTop="1">
-      <c r="A45" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="18"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-    </row>
-    <row r="52" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-    </row>
-    <row r="54" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-    </row>
-    <row r="56" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
+  <mergeCells count="97">
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="E41:H41"/>
     <mergeCell ref="E42:H42"/>
@@ -2540,135 +2903,32 @@
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
   </mergeCells>
-  <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 N32 J32 F32 B32 N18 J18 F18 B18 N4 J4 F4">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 F4 J4 N4">
-      <formula1>severity</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>severity</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 F32 J32 N32">
-      <formula1>severity</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 O32 K32 G32 C32 O18 K18 G18 C18 O4 K4 G4">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 G4 K4 O4">
-      <formula1>category</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
-      <formula1>category</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 G32 K32 O32">
-      <formula1>category</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 P32 L32 H32 D32 P18 L18 H18 D18 P4 L4 H4">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 H4 L4 P4">
-      <formula1>component</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>component</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32 H32 L32 P32">
-      <formula1>component</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 M34 I34 E34 A34 M20 I20 E20 A20 M6 I6 E6">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E6 I6 M6">
-      <formula1>status</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
-      <formula1>status</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34 E34 I34 M34">
-      <formula1>status</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 O34 K34 G34 C34 O20 K20 G20 C20 O6 K6 G6">
       <formula1>build_found</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 G6 K6 O6">
-      <formula1>build_found</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
-      <formula1>build_found</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34 G34 K34 O34">
-      <formula1>build_found</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>tester_team</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>tester_team</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
-      <formula1>tester_team</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B30 B16">
       <formula1>tester_team</formula1>
     </dataValidation>
   </dataValidations>
